--- a/Дети.xlsx
+++ b/Дети.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\github\o-52\uts-2022-07\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33EF0F58-E3EF-490F-9230-DA0737FD9C2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F92F8085-301C-40AE-8BB2-C18617218281}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{497797DC-E186-4FB6-BD17-D7CAE4DBC8C6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{497797DC-E186-4FB6-BD17-D7CAE4DBC8C6}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="82">
   <si>
     <t>ФИО</t>
   </si>
@@ -279,6 +279,9 @@
   </si>
   <si>
     <t>Номер</t>
+  </si>
+  <si>
+    <t>27-2.07.2022</t>
   </si>
 </sst>
 </file>
@@ -338,7 +341,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -369,8 +372,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -441,11 +456,50 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -492,8 +546,31 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -810,1498 +887,1455 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31254250-F3A0-428B-87B2-99C1BDF643DE}">
-  <dimension ref="A1:I57"/>
+  <dimension ref="A1:J57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B57" sqref="A1:I57"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="D50" sqref="D50:D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="7.21875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="38.21875" customWidth="1"/>
-    <col min="3" max="3" width="38.21875" style="16" customWidth="1"/>
-    <col min="6" max="6" width="14.5546875" customWidth="1"/>
+    <col min="5" max="5" width="14.5546875" customWidth="1"/>
+    <col min="8" max="8" width="18.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="29.4" thickBot="1">
+    <row r="1" spans="1:10" ht="15" thickBot="1">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="14"/>
+      <c r="C1" s="3" t="s">
+        <v>3</v>
+      </c>
       <c r="D1" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>2</v>
-      </c>
       <c r="G1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="17" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="15" thickBot="1">
-      <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="15" thickBot="1">
+      <c r="A2" s="19" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="15" t="s">
-        <v>78</v>
+      <c r="C2" s="2">
+        <v>4</v>
       </c>
       <c r="D2" s="2">
-        <v>4</v>
-      </c>
-      <c r="E2" s="2">
         <v>1</v>
       </c>
-      <c r="F2" s="5">
+      <c r="E2" s="5">
         <v>2005</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="6">
+      <c r="G2" s="6">
         <v>8122815</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" ht="15" thickBot="1">
-      <c r="A3" s="2" t="s">
+      <c r="H2" s="17">
+        <v>2</v>
+      </c>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15" thickBot="1">
+      <c r="A3" s="19" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="15" t="s">
-        <v>78</v>
+      <c r="C3" s="2">
+        <v>7</v>
       </c>
       <c r="D3" s="2">
-        <v>7</v>
-      </c>
-      <c r="E3" s="2">
         <v>2</v>
       </c>
-      <c r="F3" s="5">
+      <c r="E3" s="5">
         <v>2004</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="5">
+      <c r="G3" s="5">
         <v>8666431</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" ht="15" thickBot="1">
-      <c r="A4" s="2" t="s">
+      <c r="H3" s="17">
+        <v>1</v>
+      </c>
+      <c r="I3" s="2">
+        <v>2</v>
+      </c>
+      <c r="J3" s="2"/>
+    </row>
+    <row r="4" spans="1:10" ht="15" thickBot="1">
+      <c r="A4" s="19" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="15" t="s">
-        <v>78</v>
+      <c r="C4" s="2">
+        <v>7</v>
       </c>
       <c r="D4" s="2">
-        <v>7</v>
-      </c>
-      <c r="E4" s="2">
         <v>3</v>
       </c>
-      <c r="F4" s="5">
+      <c r="E4" s="5">
         <v>2003</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="5">
+      <c r="G4" s="5">
         <v>8269153</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" ht="15" thickBot="1">
-      <c r="A5" s="2" t="s">
+      <c r="H4" s="17">
+        <v>2</v>
+      </c>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15" thickBot="1">
+      <c r="A5" s="19" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="15" t="s">
-        <v>78</v>
+      <c r="C5" s="2">
+        <v>4</v>
       </c>
       <c r="D5" s="2">
         <v>4</v>
       </c>
-      <c r="E5" s="2">
-        <v>4</v>
-      </c>
-      <c r="F5" s="5">
+      <c r="E5" s="5">
         <v>2007</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="F5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="5">
+      <c r="G5" s="5">
         <v>8122979</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" ht="15" thickBot="1">
-      <c r="A6" s="2" t="s">
+      <c r="H5" s="17">
+        <v>2</v>
+      </c>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15" thickBot="1">
+      <c r="A6" s="19" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="15" t="s">
-        <v>78</v>
+      <c r="C6" s="2">
+        <v>4</v>
       </c>
       <c r="D6" s="2">
-        <v>4</v>
-      </c>
-      <c r="E6" s="2">
         <v>5</v>
       </c>
-      <c r="F6" s="5">
+      <c r="E6" s="5">
         <v>2006</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="F6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="5">
+      <c r="G6" s="5">
         <v>8122928</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" ht="15" thickBot="1">
-      <c r="A7" s="2" t="s">
+      <c r="H6" s="17">
+        <v>1</v>
+      </c>
+      <c r="I6" s="2">
+        <v>5</v>
+      </c>
+      <c r="J6" s="2"/>
+    </row>
+    <row r="7" spans="1:10" ht="15" thickBot="1">
+      <c r="A7" s="19" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="15" t="s">
-        <v>78</v>
+      <c r="C7" s="2">
+        <v>0</v>
       </c>
       <c r="D7" s="2">
-        <v>0</v>
-      </c>
-      <c r="E7" s="2">
-        <v>6</v>
-      </c>
-      <c r="F7" s="5">
+        <v>6</v>
+      </c>
+      <c r="E7" s="5">
         <v>2006</v>
       </c>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2" t="s">
+      <c r="F7" s="2"/>
+      <c r="G7" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" ht="15" thickBot="1">
-      <c r="A8" s="2" t="s">
+      <c r="H7" s="17">
+        <v>2</v>
+      </c>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15" thickBot="1">
+      <c r="A8" s="19" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="15" t="s">
-        <v>78</v>
+      <c r="C8" s="2">
+        <v>4</v>
       </c>
       <c r="D8" s="2">
-        <v>4</v>
-      </c>
-      <c r="E8" s="2">
         <v>7</v>
       </c>
-      <c r="F8" s="5">
+      <c r="E8" s="5">
         <v>2006</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="F8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H8" s="5">
+      <c r="G8" s="5">
         <v>8182056</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" ht="15" thickBot="1">
-      <c r="A9" s="2" t="s">
+      <c r="H8" s="17">
+        <v>2</v>
+      </c>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15" thickBot="1">
+      <c r="A9" s="19" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="15" t="s">
-        <v>78</v>
+      <c r="C9" s="2">
+        <v>4</v>
       </c>
       <c r="D9" s="2">
-        <v>4</v>
-      </c>
-      <c r="E9" s="2">
         <v>8</v>
       </c>
-      <c r="F9" s="7">
+      <c r="E9" s="7">
         <v>2007</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="F9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H9" s="5">
+      <c r="G9" s="5">
         <v>8004473</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" ht="15" thickBot="1">
-      <c r="A10" s="2" t="s">
+      <c r="H9" s="17">
+        <v>2</v>
+      </c>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15" thickBot="1">
+      <c r="A10" s="19" t="s">
         <v>6</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="15" t="s">
-        <v>78</v>
+      <c r="C10" s="2">
+        <v>7</v>
       </c>
       <c r="D10" s="2">
-        <v>7</v>
-      </c>
-      <c r="E10" s="2">
         <v>9</v>
       </c>
-      <c r="F10" s="5">
+      <c r="E10" s="5">
         <v>2004</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="F10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H10" s="5">
+      <c r="G10" s="5">
         <v>8269247</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" ht="15" thickBot="1">
-      <c r="A11" s="2" t="s">
+      <c r="H10" s="17">
+        <v>1</v>
+      </c>
+      <c r="I10" s="2">
+        <v>9</v>
+      </c>
+      <c r="J10" s="2"/>
+    </row>
+    <row r="11" spans="1:10" ht="15" thickBot="1">
+      <c r="A11" s="19" t="s">
         <v>6</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="D11" s="9">
-        <v>4</v>
-      </c>
-      <c r="E11" s="2">
+      <c r="C11" s="9">
+        <v>4</v>
+      </c>
+      <c r="D11" s="2">
         <v>10</v>
       </c>
-      <c r="F11" s="5">
+      <c r="E11" s="5">
         <v>2008</v>
       </c>
-      <c r="G11" s="9" t="s">
+      <c r="F11" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="H11" s="5">
+      <c r="G11" s="5">
         <v>8003240</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" ht="15" thickBot="1">
-      <c r="A12" s="2" t="s">
+      <c r="H11" s="17">
+        <v>2</v>
+      </c>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="15" thickBot="1">
+      <c r="A12" s="19" t="s">
         <v>6</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="15" t="s">
-        <v>78</v>
+      <c r="C12" s="2">
+        <v>4</v>
       </c>
       <c r="D12" s="2">
-        <v>4</v>
-      </c>
-      <c r="E12" s="2">
         <v>11</v>
       </c>
-      <c r="F12" s="5">
+      <c r="E12" s="5">
         <v>2007</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="F12" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H12" s="5">
+      <c r="G12" s="5">
         <v>8275015</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" ht="15" thickBot="1">
-      <c r="A13" s="2" t="s">
+      <c r="H12" s="17">
+        <v>1</v>
+      </c>
+      <c r="I12" s="2">
+        <v>11</v>
+      </c>
+      <c r="J12" s="2"/>
+    </row>
+    <row r="13" spans="1:10" ht="15" thickBot="1">
+      <c r="A13" s="18" t="s">
         <v>21</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="D13" s="9">
-        <v>4</v>
-      </c>
-      <c r="E13" s="2">
+      <c r="C13" s="9">
+        <v>4</v>
+      </c>
+      <c r="D13" s="2">
         <v>12</v>
       </c>
-      <c r="F13" s="5">
+      <c r="E13" s="5">
         <v>2009</v>
       </c>
-      <c r="G13" s="9" t="s">
+      <c r="F13" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="H13" s="6">
+      <c r="G13" s="6">
         <v>8518371</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" ht="15" thickBot="1">
-      <c r="A14" s="2" t="s">
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+    </row>
+    <row r="14" spans="1:10" ht="15" thickBot="1">
+      <c r="A14" s="18" t="s">
         <v>21</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="D14" s="9">
-        <v>4</v>
-      </c>
-      <c r="E14" s="2">
+      <c r="C14" s="9">
+        <v>4</v>
+      </c>
+      <c r="D14" s="2">
         <v>13</v>
       </c>
-      <c r="F14" s="7">
+      <c r="E14" s="7">
         <v>2005</v>
       </c>
-      <c r="G14" s="9" t="s">
+      <c r="F14" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="H14" s="5">
+      <c r="G14" s="5">
         <v>8122915</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" ht="15" thickBot="1">
-      <c r="A15" s="2" t="s">
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+    </row>
+    <row r="15" spans="1:10" ht="15" thickBot="1">
+      <c r="A15" s="18" t="s">
         <v>21</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="D15" s="9">
-        <v>4</v>
-      </c>
-      <c r="E15" s="2">
+      <c r="C15" s="9">
+        <v>4</v>
+      </c>
+      <c r="D15" s="2">
         <v>14</v>
       </c>
-      <c r="F15" s="5">
+      <c r="E15" s="5">
         <v>2007</v>
       </c>
-      <c r="G15" s="9" t="s">
+      <c r="F15" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="H15" s="5">
+      <c r="G15" s="5">
         <v>8050315</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" ht="15" thickBot="1">
-      <c r="A16" s="2" t="s">
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+    </row>
+    <row r="16" spans="1:10" ht="15" thickBot="1">
+      <c r="A16" s="18" t="s">
         <v>21</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="D16" s="9">
-        <v>4</v>
-      </c>
-      <c r="E16" s="2">
+      <c r="C16" s="9">
+        <v>4</v>
+      </c>
+      <c r="D16" s="2">
         <v>15</v>
       </c>
-      <c r="F16" s="5">
+      <c r="E16" s="5">
         <v>2009</v>
       </c>
-      <c r="G16" s="9" t="s">
+      <c r="F16" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="H16" s="5">
+      <c r="G16" s="5">
         <v>8122944</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" ht="15" thickBot="1">
-      <c r="A17" s="2" t="s">
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+    </row>
+    <row r="17" spans="1:10" ht="15" thickBot="1">
+      <c r="A17" s="18" t="s">
         <v>21</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="15" t="s">
-        <v>78</v>
+      <c r="C17" s="2">
+        <v>4</v>
       </c>
       <c r="D17" s="2">
-        <v>4</v>
-      </c>
-      <c r="E17" s="2">
         <v>16</v>
       </c>
-      <c r="F17" s="5">
+      <c r="E17" s="5">
         <v>2007</v>
       </c>
-      <c r="G17" s="2" t="s">
+      <c r="F17" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H17" s="5">
+      <c r="G17" s="5">
         <v>8275002</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" ht="15" thickBot="1">
-      <c r="A18" s="2" t="s">
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+    </row>
+    <row r="18" spans="1:10" ht="15" thickBot="1">
+      <c r="A18" s="18" t="s">
         <v>21</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="15" t="s">
-        <v>78</v>
+      <c r="C18" s="2">
+        <v>4</v>
       </c>
       <c r="D18" s="2">
-        <v>4</v>
-      </c>
-      <c r="E18" s="2">
         <v>17</v>
       </c>
-      <c r="F18" s="5">
+      <c r="E18" s="5">
         <v>2009</v>
       </c>
-      <c r="G18" s="2" t="s">
+      <c r="F18" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H18" s="5">
+      <c r="G18" s="5">
         <v>8332333</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" ht="15" thickBot="1">
-      <c r="A19" s="2" t="s">
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+    </row>
+    <row r="19" spans="1:10" ht="15" thickBot="1">
+      <c r="A19" s="18" t="s">
         <v>21</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C19" s="15" t="s">
-        <v>78</v>
+      <c r="C19" s="2">
+        <v>4</v>
       </c>
       <c r="D19" s="2">
-        <v>4</v>
-      </c>
-      <c r="E19" s="2">
         <v>18</v>
       </c>
-      <c r="F19" s="5">
+      <c r="E19" s="5">
         <v>2008</v>
       </c>
-      <c r="G19" s="2" t="s">
+      <c r="F19" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H19" s="5">
+      <c r="G19" s="5">
         <v>8269261</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" ht="15" thickBot="1">
-      <c r="A20" s="2" t="s">
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+    </row>
+    <row r="20" spans="1:10" ht="15" thickBot="1">
+      <c r="A20" s="19" t="s">
         <v>6</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C20" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="D20" s="9">
-        <v>4</v>
-      </c>
-      <c r="E20" s="2">
+      <c r="C20" s="9">
+        <v>4</v>
+      </c>
+      <c r="D20" s="2">
         <v>19</v>
       </c>
-      <c r="F20" s="5">
+      <c r="E20" s="5">
         <v>2007</v>
       </c>
-      <c r="G20" s="9" t="s">
+      <c r="F20" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="H20" s="5">
+      <c r="G20" s="5">
         <v>8182053</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" ht="15" thickBot="1">
-      <c r="A21" s="2" t="s">
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20" s="2">
+        <v>19</v>
+      </c>
+      <c r="J20" s="2"/>
+    </row>
+    <row r="21" spans="1:10" ht="15" thickBot="1">
+      <c r="A21" s="19" t="s">
         <v>6</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C21" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="D21" s="9">
-        <v>4</v>
-      </c>
-      <c r="E21" s="2">
+      <c r="C21" s="9">
+        <v>4</v>
+      </c>
+      <c r="D21" s="2">
         <v>20</v>
       </c>
-      <c r="F21" s="7">
+      <c r="E21" s="7">
         <v>2008</v>
       </c>
-      <c r="G21" s="9" t="s">
+      <c r="F21" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="H21" s="5">
+      <c r="G21" s="5">
         <v>8122940</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" ht="15" thickBot="1">
-      <c r="A22" s="2" t="s">
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21" s="2">
+        <v>20</v>
+      </c>
+      <c r="J21" s="2"/>
+    </row>
+    <row r="22" spans="1:10" ht="15" thickBot="1">
+      <c r="A22" s="19" t="s">
         <v>6</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C22" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="D22" s="8">
-        <v>4</v>
-      </c>
-      <c r="E22" s="2">
+      <c r="C22" s="8">
+        <v>4</v>
+      </c>
+      <c r="D22" s="2">
         <v>21</v>
       </c>
-      <c r="F22" s="5">
+      <c r="E22" s="5">
         <v>2008</v>
       </c>
-      <c r="G22" s="8" t="s">
+      <c r="F22" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="H22" s="5">
+      <c r="G22" s="5">
         <v>8000273</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" ht="15" thickBot="1">
-      <c r="A23" s="2" t="s">
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22" s="2">
+        <v>21</v>
+      </c>
+      <c r="J22" s="2"/>
+    </row>
+    <row r="23" spans="1:10" ht="15" thickBot="1">
+      <c r="A23" s="19" t="s">
         <v>6</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C23" s="15" t="s">
-        <v>78</v>
+      <c r="C23" s="2">
+        <v>7</v>
       </c>
       <c r="D23" s="2">
-        <v>7</v>
-      </c>
-      <c r="E23" s="2">
         <v>22</v>
       </c>
-      <c r="F23" s="5">
+      <c r="E23" s="5">
         <v>2006</v>
       </c>
-      <c r="G23" s="2" t="s">
+      <c r="F23" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H23" s="5">
+      <c r="G23" s="5">
         <v>8654825</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" ht="15" thickBot="1">
-      <c r="A24" s="2" t="s">
+      <c r="H23" s="17">
+        <v>1</v>
+      </c>
+      <c r="I23" s="2">
+        <v>22</v>
+      </c>
+      <c r="J23" s="2"/>
+    </row>
+    <row r="24" spans="1:10" ht="15" thickBot="1">
+      <c r="A24" s="22" t="s">
         <v>6</v>
       </c>
       <c r="B24" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C24" s="15" t="s">
-        <v>78</v>
+      <c r="C24" s="2">
+        <v>6</v>
       </c>
       <c r="D24" s="2">
-        <v>6</v>
-      </c>
-      <c r="E24" s="2">
         <v>23</v>
       </c>
-      <c r="F24" s="5">
+      <c r="E24" s="5">
         <v>2007</v>
       </c>
-      <c r="G24" s="2" t="s">
+      <c r="F24" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="H24" s="5">
+      <c r="G24" s="5">
         <v>8275017</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" ht="15" thickBot="1">
-      <c r="A25" s="9" t="s">
+      <c r="H24" s="17">
+        <v>2</v>
+      </c>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A25" s="21" t="s">
         <v>35</v>
       </c>
       <c r="B25" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="C25" s="15" t="s">
-        <v>78</v>
+      <c r="C25" s="2">
+        <v>5</v>
       </c>
       <c r="D25" s="2">
-        <v>5</v>
-      </c>
-      <c r="E25" s="2">
         <v>24</v>
       </c>
-      <c r="F25" s="5">
+      <c r="E25" s="5">
         <v>2008</v>
       </c>
-      <c r="G25" s="2" t="s">
+      <c r="F25" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H25" s="5">
+      <c r="G25" s="5">
         <v>8122820</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="15" thickBot="1">
-      <c r="A26" s="2" t="s">
+    <row r="26" spans="1:10" ht="15" thickBot="1">
+      <c r="A26" s="18" t="s">
         <v>38</v>
       </c>
       <c r="B26" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="C26" s="15" t="s">
-        <v>78</v>
+      <c r="C26" s="2">
+        <v>5</v>
       </c>
       <c r="D26" s="2">
-        <v>5</v>
-      </c>
-      <c r="E26" s="2">
         <v>25</v>
       </c>
-      <c r="F26" s="5">
+      <c r="E26" s="5">
         <v>2008</v>
       </c>
-      <c r="G26" s="2" t="s">
+      <c r="F26" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H26" s="5">
+      <c r="G26" s="5">
         <v>8275299</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="15" thickBot="1">
-      <c r="A27" s="2" t="s">
+    <row r="27" spans="1:10" ht="15" thickBot="1">
+      <c r="A27" s="18" t="s">
         <v>38</v>
       </c>
       <c r="B27" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="C27" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="D27" s="11">
+      <c r="C27" s="11">
         <v>1</v>
       </c>
-      <c r="E27" s="2">
+      <c r="D27" s="2">
         <v>26</v>
       </c>
-      <c r="F27" s="5">
+      <c r="E27" s="5">
         <v>2008</v>
       </c>
-      <c r="G27" s="11" t="s">
+      <c r="F27" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="H27" s="5">
+      <c r="G27" s="5">
         <v>920042</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="15" thickBot="1">
-      <c r="A28" s="2" t="s">
+    <row r="28" spans="1:10" ht="15" thickBot="1">
+      <c r="A28" s="18" t="s">
         <v>38</v>
       </c>
       <c r="B28" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="C28" s="15" t="s">
-        <v>78</v>
+      <c r="C28" s="2">
+        <v>6</v>
       </c>
       <c r="D28" s="2">
-        <v>6</v>
-      </c>
-      <c r="E28" s="2">
         <v>27</v>
       </c>
-      <c r="F28" s="5">
+      <c r="E28" s="5">
         <v>2010</v>
       </c>
-      <c r="G28" s="2" t="s">
+      <c r="F28" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="H28" s="5">
+      <c r="G28" s="5">
         <v>8498491</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="15" thickBot="1">
-      <c r="A29" s="2" t="s">
+    <row r="29" spans="1:10" ht="15" thickBot="1">
+      <c r="A29" s="18" t="s">
         <v>38</v>
       </c>
       <c r="B29" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="C29" s="15" t="s">
-        <v>78</v>
+      <c r="C29" s="2">
+        <v>6</v>
       </c>
       <c r="D29" s="2">
-        <v>6</v>
-      </c>
-      <c r="E29" s="2">
         <v>28</v>
       </c>
-      <c r="F29" s="5">
+      <c r="E29" s="5">
         <v>2007</v>
       </c>
-      <c r="G29" s="2" t="s">
+      <c r="F29" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="H29" s="5">
+      <c r="G29" s="5">
         <v>1421669</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="15" thickBot="1">
-      <c r="A30" s="2" t="s">
+    <row r="30" spans="1:10" ht="15" thickBot="1">
+      <c r="A30" s="18" t="s">
         <v>38</v>
       </c>
       <c r="B30" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C30" s="15" t="s">
-        <v>78</v>
+      <c r="C30" s="2">
+        <v>1</v>
       </c>
       <c r="D30" s="2">
-        <v>1</v>
-      </c>
-      <c r="E30" s="2">
         <v>29</v>
       </c>
-      <c r="F30" s="5">
+      <c r="E30" s="5">
         <v>2008</v>
       </c>
-      <c r="G30" s="2" t="s">
+      <c r="F30" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="H30" s="5">
+      <c r="G30" s="5">
         <v>8010208</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="15" thickBot="1">
-      <c r="A31" s="9" t="s">
+    <row r="31" spans="1:10" ht="15" thickBot="1">
+      <c r="A31" s="20" t="s">
         <v>35</v>
       </c>
       <c r="B31" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="C31" s="15" t="s">
-        <v>78</v>
+      <c r="C31" s="2">
+        <v>6</v>
       </c>
       <c r="D31" s="2">
-        <v>6</v>
-      </c>
-      <c r="E31" s="2">
         <v>30</v>
       </c>
-      <c r="F31" s="5">
+      <c r="E31" s="5">
         <v>2007</v>
       </c>
-      <c r="G31" s="2" t="s">
+      <c r="F31" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="H31" s="5">
+      <c r="G31" s="5">
         <v>2125812</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="15" thickBot="1">
-      <c r="A32" s="9" t="s">
+    <row r="32" spans="1:10" ht="15" thickBot="1">
+      <c r="A32" s="20" t="s">
         <v>35</v>
       </c>
       <c r="B32" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="C32" s="15" t="s">
-        <v>78</v>
+      <c r="C32" s="2">
+        <v>6</v>
       </c>
       <c r="D32" s="2">
-        <v>6</v>
-      </c>
-      <c r="E32" s="2">
         <v>31</v>
       </c>
-      <c r="F32" s="5">
+      <c r="E32" s="5">
         <v>2007</v>
       </c>
-      <c r="G32" s="2" t="s">
+      <c r="F32" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="H32" s="5">
+      <c r="G32" s="5">
         <v>1425043</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="15" thickBot="1">
-      <c r="A33" s="9" t="s">
+    <row r="33" spans="1:7" ht="15" thickBot="1">
+      <c r="A33" s="20" t="s">
         <v>35</v>
       </c>
       <c r="B33" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="C33" s="15" t="s">
-        <v>78</v>
+      <c r="C33" s="2">
+        <v>6</v>
       </c>
       <c r="D33" s="2">
-        <v>6</v>
-      </c>
-      <c r="E33" s="2">
         <v>32</v>
       </c>
-      <c r="F33" s="5">
+      <c r="E33" s="5">
         <v>2010</v>
       </c>
-      <c r="G33" s="2" t="s">
+      <c r="F33" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="H33" s="5">
+      <c r="G33" s="5">
         <v>2135130</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="15" thickBot="1">
-      <c r="A34" s="9" t="s">
+    <row r="34" spans="1:7" ht="15" thickBot="1">
+      <c r="A34" s="20" t="s">
         <v>35</v>
       </c>
       <c r="B34" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="C34" s="15" t="s">
-        <v>78</v>
+      <c r="C34" s="2">
+        <v>6</v>
       </c>
       <c r="D34" s="2">
-        <v>6</v>
-      </c>
-      <c r="E34" s="2">
         <v>33</v>
       </c>
-      <c r="F34" s="5">
+      <c r="E34" s="5">
         <v>2010</v>
       </c>
-      <c r="G34" s="2" t="s">
+      <c r="F34" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="H34" s="5">
+      <c r="G34" s="5">
         <v>8498490</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="15" thickBot="1">
-      <c r="A35" s="9" t="s">
+    <row r="35" spans="1:7" ht="15" thickBot="1">
+      <c r="A35" s="20" t="s">
         <v>35</v>
       </c>
       <c r="B35" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="C35" s="15" t="s">
-        <v>78</v>
+      <c r="C35" s="2">
+        <v>1</v>
       </c>
       <c r="D35" s="2">
-        <v>1</v>
-      </c>
-      <c r="E35" s="2">
         <v>34</v>
       </c>
-      <c r="F35" s="5">
+      <c r="E35" s="5">
         <v>2010</v>
       </c>
-      <c r="G35" s="2" t="s">
+      <c r="F35" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="H35" s="5">
+      <c r="G35" s="5">
         <v>8275297</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="15" thickBot="1">
-      <c r="A36" s="9" t="s">
+    <row r="36" spans="1:7" ht="15" thickBot="1">
+      <c r="A36" s="20" t="s">
         <v>35</v>
       </c>
       <c r="B36" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="C36" s="15" t="s">
-        <v>78</v>
+      <c r="C36" s="2">
+        <v>5</v>
       </c>
       <c r="D36" s="2">
-        <v>5</v>
-      </c>
-      <c r="E36" s="2">
         <v>35</v>
       </c>
-      <c r="F36" s="5">
+      <c r="E36" s="5">
         <v>2009</v>
       </c>
-      <c r="G36" s="2" t="s">
+      <c r="F36" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H36" s="5">
+      <c r="G36" s="5">
         <v>2125815</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="15" thickBot="1">
-      <c r="A37" s="9" t="s">
+    <row r="37" spans="1:7" ht="15" thickBot="1">
+      <c r="A37" s="20" t="s">
         <v>35</v>
       </c>
       <c r="B37" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="C37" s="15" t="s">
-        <v>78</v>
+      <c r="C37" s="2">
+        <v>1</v>
       </c>
       <c r="D37" s="2">
-        <v>1</v>
-      </c>
-      <c r="E37" s="2">
         <v>36</v>
       </c>
-      <c r="F37" s="5">
+      <c r="E37" s="5">
         <v>2011</v>
       </c>
-      <c r="G37" s="2" t="s">
+      <c r="F37" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="H37" s="5">
+      <c r="G37" s="5">
         <v>8182076</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="15" thickBot="1">
-      <c r="A38" s="2" t="s">
+    <row r="38" spans="1:7" ht="15" thickBot="1">
+      <c r="A38" s="24" t="s">
         <v>38</v>
       </c>
       <c r="B38" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="C38" s="15" t="s">
-        <v>78</v>
+      <c r="C38" s="2">
+        <v>5</v>
       </c>
       <c r="D38" s="2">
-        <v>5</v>
-      </c>
-      <c r="E38" s="2">
         <v>37</v>
       </c>
-      <c r="F38" s="5">
+      <c r="E38" s="5">
         <v>2010</v>
       </c>
-      <c r="G38" s="2" t="s">
+      <c r="F38" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H38" s="5">
+      <c r="G38" s="5">
         <v>8681431</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="15" thickBot="1">
-      <c r="A39" s="2" t="s">
+    <row r="39" spans="1:7" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A39" s="23" t="s">
         <v>53</v>
       </c>
       <c r="B39" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="C39" s="15" t="s">
-        <v>78</v>
+      <c r="C39" s="2">
+        <v>3</v>
       </c>
       <c r="D39" s="2">
-        <v>3</v>
-      </c>
-      <c r="E39" s="2">
         <v>38</v>
       </c>
-      <c r="F39" s="5">
+      <c r="E39" s="5">
         <v>2012</v>
       </c>
-      <c r="G39" s="2" t="s">
+      <c r="F39" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="H39" s="6">
+      <c r="G39" s="6">
         <v>2081519</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="15" thickBot="1">
-      <c r="A40" s="2" t="s">
+    <row r="40" spans="1:7" ht="15" thickBot="1">
+      <c r="A40" s="19" t="s">
         <v>53</v>
       </c>
       <c r="B40" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="C40" s="15" t="s">
-        <v>78</v>
+      <c r="C40" s="2">
+        <v>1</v>
       </c>
       <c r="D40" s="2">
-        <v>1</v>
-      </c>
-      <c r="E40" s="2">
         <v>39</v>
       </c>
-      <c r="F40" s="5">
+      <c r="E40" s="5">
         <v>2011</v>
       </c>
-      <c r="G40" s="2" t="s">
+      <c r="F40" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="H40" s="5">
+      <c r="G40" s="5">
         <v>2081530</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="15" thickBot="1">
-      <c r="A41" s="2" t="s">
+    <row r="41" spans="1:7" ht="15" thickBot="1">
+      <c r="A41" s="19" t="s">
         <v>53</v>
       </c>
       <c r="B41" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="C41" s="15" t="s">
-        <v>78</v>
+      <c r="C41" s="2">
+        <v>0</v>
       </c>
       <c r="D41" s="2">
-        <v>0</v>
-      </c>
-      <c r="E41" s="2">
         <v>40</v>
       </c>
-      <c r="F41" s="5">
+      <c r="E41" s="5">
         <v>2013</v>
       </c>
-      <c r="G41" s="2" t="s">
+      <c r="F41" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="H41" s="5">
+      <c r="G41" s="5">
         <v>8275296</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="15" thickBot="1">
-      <c r="A42" s="2" t="s">
+    <row r="42" spans="1:7" ht="15" thickBot="1">
+      <c r="A42" s="19" t="s">
         <v>53</v>
       </c>
       <c r="B42" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="C42" s="15" t="s">
-        <v>78</v>
+      <c r="C42" s="2">
+        <v>0</v>
       </c>
       <c r="D42" s="2">
-        <v>0</v>
-      </c>
-      <c r="E42" s="2">
         <v>41</v>
       </c>
-      <c r="F42" s="5">
+      <c r="E42" s="5">
         <v>2013</v>
       </c>
-      <c r="G42" s="2" t="s">
+      <c r="F42" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="H42" s="5">
+      <c r="G42" s="5">
         <v>1450003</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="15" thickBot="1">
-      <c r="A43" s="2" t="s">
+    <row r="43" spans="1:7" ht="15" thickBot="1">
+      <c r="A43" s="19" t="s">
         <v>53</v>
       </c>
       <c r="B43" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="C43" s="15" t="s">
-        <v>78</v>
+      <c r="C43" s="2">
+        <v>1</v>
       </c>
       <c r="D43" s="2">
-        <v>1</v>
-      </c>
-      <c r="E43" s="2">
         <v>42</v>
       </c>
-      <c r="F43" s="5">
+      <c r="E43" s="5">
         <v>2011</v>
       </c>
-      <c r="G43" s="2" t="s">
+      <c r="F43" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="H43" s="5">
+      <c r="G43" s="5">
         <v>8219796</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="15" thickBot="1">
-      <c r="A44" s="2" t="s">
+    <row r="44" spans="1:7" ht="15" thickBot="1">
+      <c r="A44" s="19" t="s">
         <v>53</v>
       </c>
       <c r="B44" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="C44" s="15" t="s">
-        <v>78</v>
+      <c r="C44" s="2">
+        <v>1</v>
       </c>
       <c r="D44" s="2">
-        <v>1</v>
-      </c>
-      <c r="E44" s="2">
         <v>43</v>
       </c>
-      <c r="F44" s="5">
+      <c r="E44" s="5">
         <v>2010</v>
       </c>
-      <c r="G44" s="2" t="s">
+      <c r="F44" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="H44" s="5">
+      <c r="G44" s="5">
         <v>7002130</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="15" thickBot="1">
-      <c r="A45" s="2" t="s">
+    <row r="45" spans="1:7" ht="15" thickBot="1">
+      <c r="A45" s="19" t="s">
         <v>53</v>
       </c>
       <c r="B45" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="C45" s="15" t="s">
-        <v>78</v>
+      <c r="C45" s="2">
+        <v>1</v>
       </c>
       <c r="D45" s="2">
-        <v>1</v>
-      </c>
-      <c r="E45" s="2">
         <v>44</v>
       </c>
-      <c r="F45" s="5">
+      <c r="E45" s="5">
         <v>2011</v>
       </c>
-      <c r="G45" s="2" t="s">
+      <c r="F45" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="H45" s="5">
+      <c r="G45" s="5">
         <v>1991168</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="15" thickBot="1">
-      <c r="A46" s="2" t="s">
+    <row r="46" spans="1:7" ht="15" thickBot="1">
+      <c r="A46" s="19" t="s">
         <v>53</v>
       </c>
       <c r="B46" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="C46" s="15" t="s">
-        <v>78</v>
+      <c r="C46" s="2">
+        <v>1</v>
       </c>
       <c r="D46" s="2">
-        <v>1</v>
-      </c>
-      <c r="E46" s="2">
         <v>45</v>
       </c>
-      <c r="F46" s="5">
+      <c r="E46" s="5">
         <v>2009</v>
       </c>
-      <c r="G46" s="2" t="s">
+      <c r="F46" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="H46" s="5">
+      <c r="G46" s="5">
         <v>2082103</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="15" thickBot="1">
-      <c r="A47" s="2" t="s">
+    <row r="47" spans="1:7" ht="15" thickBot="1">
+      <c r="A47" s="19" t="s">
         <v>53</v>
       </c>
       <c r="B47" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="C47" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="D47" s="13">
+      <c r="C47" s="13">
         <v>3</v>
       </c>
-      <c r="E47" s="2">
+      <c r="D47" s="2">
         <v>46</v>
       </c>
-      <c r="F47" s="5">
+      <c r="E47" s="5">
         <v>2011</v>
       </c>
-      <c r="G47" s="13" t="s">
+      <c r="F47" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="H47" s="5">
+      <c r="G47" s="5">
         <v>9200042</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="15" thickBot="1">
-      <c r="A48" s="2" t="s">
+    <row r="48" spans="1:7" ht="15" thickBot="1">
+      <c r="A48" s="19" t="s">
         <v>53</v>
       </c>
       <c r="B48" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="C48" s="15" t="s">
-        <v>78</v>
+      <c r="C48" s="2">
+        <v>1</v>
       </c>
       <c r="D48" s="2">
-        <v>1</v>
-      </c>
-      <c r="E48" s="2">
         <v>47</v>
       </c>
-      <c r="F48" s="5">
+      <c r="E48" s="5">
         <v>2010</v>
       </c>
-      <c r="G48" s="2" t="s">
+      <c r="F48" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="H48" s="5">
+      <c r="G48" s="5">
         <v>2146129</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="15" thickBot="1">
-      <c r="A49" s="2" t="s">
+    <row r="49" spans="1:7" ht="15" thickBot="1">
+      <c r="A49" s="19" t="s">
         <v>53</v>
       </c>
       <c r="B49" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="C49" s="15" t="s">
-        <v>78</v>
+      <c r="C49" s="2">
+        <v>3</v>
       </c>
       <c r="D49" s="2">
-        <v>3</v>
-      </c>
-      <c r="E49" s="2">
         <v>48</v>
       </c>
-      <c r="F49" s="5">
+      <c r="E49" s="5">
         <v>2011</v>
       </c>
-      <c r="G49" s="2" t="s">
+      <c r="F49" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="H49" s="5">
+      <c r="G49" s="5">
         <v>7556707</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="15" thickBot="1">
-      <c r="A50" s="2" t="s">
+    <row r="50" spans="1:7" ht="15" thickBot="1">
+      <c r="A50" s="18" t="s">
         <v>70</v>
       </c>
       <c r="B50" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="C50" s="15" t="s">
-        <v>78</v>
+      <c r="C50" s="2">
+        <v>3</v>
       </c>
       <c r="D50" s="2">
-        <v>3</v>
-      </c>
-      <c r="E50" s="2">
         <v>49</v>
       </c>
-      <c r="F50" s="5">
+      <c r="E50" s="5">
         <v>2012</v>
       </c>
-      <c r="G50" s="2" t="s">
+      <c r="F50" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="H50" s="5">
+      <c r="G50" s="5">
         <v>8117967</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="15" thickBot="1">
-      <c r="A51" s="2" t="s">
+    <row r="51" spans="1:7" ht="15" thickBot="1">
+      <c r="A51" s="18" t="s">
         <v>70</v>
       </c>
       <c r="B51" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="C51" s="15" t="s">
-        <v>78</v>
+      <c r="C51" s="2">
+        <v>3</v>
       </c>
       <c r="D51" s="2">
-        <v>3</v>
-      </c>
-      <c r="E51" s="2">
         <v>50</v>
       </c>
-      <c r="F51" s="5">
+      <c r="E51" s="5">
         <v>2011</v>
       </c>
-      <c r="G51" s="2" t="s">
+      <c r="F51" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="H51" s="5">
+      <c r="G51" s="5">
         <v>6304691</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="15" thickBot="1">
-      <c r="A52" s="2" t="s">
+    <row r="52" spans="1:7" ht="15" thickBot="1">
+      <c r="A52" s="18" t="s">
         <v>70</v>
       </c>
       <c r="B52" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="C52" s="15" t="s">
-        <v>78</v>
+      <c r="C52" s="2">
+        <v>0</v>
       </c>
       <c r="D52" s="2">
-        <v>0</v>
-      </c>
-      <c r="E52" s="2">
         <v>51</v>
       </c>
-      <c r="F52" s="5">
+      <c r="E52" s="5">
         <v>2013</v>
       </c>
-      <c r="G52" s="2" t="s">
+      <c r="F52" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="H52" s="5">
+      <c r="G52" s="5">
         <v>2081518</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="15" thickBot="1">
-      <c r="A53" s="2" t="s">
+    <row r="53" spans="1:7" ht="15" thickBot="1">
+      <c r="A53" s="18" t="s">
         <v>70</v>
       </c>
       <c r="B53" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="C53" s="15" t="s">
-        <v>78</v>
+      <c r="C53" s="2">
+        <v>3</v>
       </c>
       <c r="D53" s="2">
-        <v>3</v>
-      </c>
-      <c r="E53" s="2">
         <v>52</v>
       </c>
-      <c r="F53" s="5">
+      <c r="E53" s="5">
         <v>2012</v>
       </c>
-      <c r="G53" s="2" t="s">
+      <c r="F53" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="H53" s="5">
+      <c r="G53" s="5">
         <v>2101046</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="15" thickBot="1">
-      <c r="A54" s="2" t="s">
+    <row r="54" spans="1:7" ht="15" thickBot="1">
+      <c r="A54" s="18" t="s">
         <v>70</v>
       </c>
       <c r="B54" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="C54" s="15" t="s">
-        <v>78</v>
+      <c r="C54" s="2">
+        <v>2</v>
       </c>
       <c r="D54" s="2">
-        <v>2</v>
-      </c>
-      <c r="E54" s="2">
         <v>53</v>
       </c>
-      <c r="F54" s="5">
+      <c r="E54" s="5">
         <v>2010</v>
       </c>
-      <c r="G54" s="2" t="s">
+      <c r="F54" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="H54" s="5">
+      <c r="G54" s="5">
         <v>2149333</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="15" thickBot="1">
-      <c r="A55" s="2" t="s">
+    <row r="55" spans="1:7" ht="15" thickBot="1">
+      <c r="A55" s="19" t="s">
         <v>53</v>
       </c>
       <c r="B55" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="C55" s="15" t="s">
-        <v>78</v>
+      <c r="C55" s="2">
+        <v>0</v>
       </c>
       <c r="D55" s="2">
-        <v>0</v>
-      </c>
-      <c r="E55" s="2">
         <v>54</v>
       </c>
-      <c r="F55" s="5">
+      <c r="E55" s="5">
         <v>2011</v>
       </c>
-      <c r="G55" s="2" t="s">
+      <c r="F55" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="H55" s="5">
+      <c r="G55" s="5">
         <v>2040208</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="15" thickBot="1">
-      <c r="A56" s="2" t="s">
+    <row r="56" spans="1:7" ht="15" thickBot="1">
+      <c r="A56" s="19" t="s">
         <v>53</v>
       </c>
       <c r="B56" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="C56" s="15" t="s">
-        <v>78</v>
+      <c r="C56" s="2">
+        <v>3</v>
       </c>
       <c r="D56" s="2">
-        <v>3</v>
-      </c>
-      <c r="E56" s="2">
         <v>55</v>
       </c>
-      <c r="F56" s="5">
+      <c r="E56" s="5">
         <v>2012</v>
       </c>
-      <c r="G56" s="2" t="s">
+      <c r="F56" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="H56" s="5">
+      <c r="G56" s="5">
         <v>2135121</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="15" thickBot="1">
-      <c r="A57" s="2" t="s">
+    <row r="57" spans="1:7" ht="15" thickBot="1">
+      <c r="A57" s="19" t="s">
         <v>53</v>
       </c>
       <c r="B57" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="C57" s="15" t="s">
-        <v>78</v>
+      <c r="C57" s="2">
+        <v>3</v>
       </c>
       <c r="D57" s="2">
-        <v>3</v>
-      </c>
-      <c r="E57" s="2">
         <v>56</v>
       </c>
-      <c r="F57" s="5">
+      <c r="E57" s="5">
         <v>2010</v>
       </c>
-      <c r="G57" s="2" t="s">
+      <c r="F57" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="H57" s="5">
+      <c r="G57" s="5">
         <v>2062609</v>
       </c>
     </row>
@@ -2315,7 +2349,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C8ED2E3-1692-41AA-AC1C-38B2182A7722}">
   <dimension ref="A1:H57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
@@ -2341,7 +2375,7 @@
       <c r="G1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="H1" s="16" t="s">
         <v>79</v>
       </c>
     </row>
